--- a/data/newbill.xlsx
+++ b/data/newbill.xlsx
@@ -613,22 +613,26 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>采用《中华人民共和国行政区划码》（GB/T 2260）最新标准的县（区）级数字码。, 具体代码见码值表“C0009-行政区划代码”。</t>
+          <t>采用《中华人民共和国行政区划码》（GB/T 2260）最新标准的县（区）级数字码。
+具体代码见码值表“C0009-行政区划代码”。</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>01：直贴, 02：买断式转贴现</t>
+          <t>01：直贴
+02：买断式转贴现</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>01：银行承兑汇票, 02：商业承兑汇票</t>
+          <t>01：银行承兑汇票
+02：商业承兑汇票</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>01：纸票, 02：电票</t>
+          <t>01：纸票
+02：电票</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -638,7 +642,30 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>A：单位, A01：统一社会信用代码, A02：组织机构代码, A03：其他, B：自然人, B01：身份证, B02：户口簿, B03：护照, B04：军官证, B05：士兵证, B06：港澳居民来往内地通行证, B07：台湾同胞来往内地通行证, B08：临时身份证, B09：外国人居留证, B10：警官证, B11：外国人永久居留身份证, B12：港澳台居民居住证, B99：其他证件, C：资管产品, C01：资管产品统计编码, C02：资管产品登记备案编码, L01：全球法人识别编码（LEI码）, Z99：自定义码, 必须填写最底层类别。</t>
+          <t>A：单位
+A01：统一社会信用代码
+A02：组织机构代码
+A03：其他
+B：自然人
+B01：身份证
+B02：户口簿
+B03：护照
+B04：军官证
+B05：士兵证
+B06：港澳居民来往内地通行证
+B07：台湾同胞来往内地通行证
+B08：临时身份证
+B09：外国人居留证
+B10：警官证
+B11：外国人永久居留身份证
+B12：港澳台居民居住证
+B99：其他证件
+C：资管产品
+C01：资管产品统计编码
+C02：资管产品登记备案编码
+L01：全球法人识别编码（LEI码）
+Z99：自定义码
+必须填写最底层类别。</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -648,27 +675,85 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>非居民不得填报广义政府、金融机构、非金融企业、住户等居民部门分类；必须填写最底层类别。具体码值如下：, A：广义政府, A01：中央政府, A02：地方政府, A03：社会保障基金, A04：机关团体, A05：部队, A06：住房公积金, A99：其他, B：金融机构部门, B01：货币当局, B02：监管当局, B03：银行业存款类金融机构, B04：银行业非存款类金融机构, B05：证券业金融机构, B06：保险业金融机构, B07：交易及结算类金融机构, B08：金融控股公司, B09：特定目的载体, B99：其他, C：非金融企业部门, C01：公司, C02：非公司企业, C99：其他非金融企业部门, D：住户部门, D01：住户, D02：为住户服务的非营利机构, E：非居民部门, E01：国际组织, E02：外国政府, E03：境外金融机构, E04：境外非金融企业, E05：外国居民</t>
+          <t>非居民不得填报广义政府、金融机构、非金融企业、住户等居民部门分类；必须填写最底层类别。具体码值如下：
+A：广义政府
+A01：中央政府
+A02：地方政府
+A03：社会保障基金
+A04：机关团体
+A05：部队
+A06：住房公积金
+A99：其他
+B：金融机构部门
+B01：货币当局
+B02：监管当局
+B03：银行业存款类金融机构
+B04：银行业非存款类金融机构
+B05：证券业金融机构
+B06：保险业金融机构
+B07：交易及结算类金融机构
+B08：金融控股公司
+B09：特定目的载体
+B99：其他
+C：非金融企业部门
+C01：公司
+C02：非公司企业
+C99：其他非金融企业部门
+D：住户部门
+D01：住户
+D02：为住户服务的非营利机构
+E：非居民部门
+E01：国际组织
+E02：外国政府
+E03：境外金融机构
+E04：境外非金融企业
+E05：外国居民</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>行业采用《国民经济行业分类》（GB/T 4754）最新标准的大类。个人填报“100”，境外贴现申请人填报“200”。, 具体代码见码值表“C0012-行业大类”。</t>
+          <t>行业采用《国民经济行业分类》（GB/T 4754）最新标准的大类。个人填报“100”，境外贴现申请人填报“200”。
+具体代码见码值表“C0012-行业大类”。</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>如果是境内客户，采用《中华人民共和国行政区划码》（GB/T 2260）最新标准的县（区）级数字码,具体代码见码值表“C0009-行政区划代码”；, 如果是境外客户，前3位用“000”填充，后3位采用《世界各国和地区名称代码》（GB/T 2659）最新标准的3位国别阿拉伯数字代码（客户注册地为港澳台的，应按境外客户填报地区代码，不得填报行政区划代码如810000、820000等）。, 具体代码见码值表“C0013-国家地区代码”。</t>
+          <t>如果是境内客户，采用《中华人民共和国行政区划码》（GB/T 2260）最新标准的县（区）级数字码,具体代码见码值表“C0009-行政区划代码”；
+如果是境外客户，前3位用“000”填充，后3位采用《世界各国和地区名称代码》（GB/T 2659）最新标准的3位国别阿拉伯数字代码（客户注册地为港澳台的，应按境外客户填报地区代码，不得填报行政区划代码如810000、820000等）。
+具体代码见码值表“C0013-国家地区代码”。</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>采用国家统计局印发的《关于统计上对公有和非公有控股经济的分类办法》（国统字200579号）。个人和境外非居民不需填报。填写值域树形结构的叶节点类别，即最小类别。如受实际情况所限不能确定最底层类别的，允许回溯一级。例如，若不能确定一个国有控股企业是A0101或A0102，可填写A01，不可填A。具体码值如下：, A：公有控股经济, A01：国有控股, A0101：国有相对控股, A0102：国有绝对控股, A02：集体控股, A0201：集体相对控股, A0202：集体绝对控股, B：非公有控股经济, B01：私人控股, B0101：私人相对控股, B0102：私人绝对控股, B02：港澳台控股, B0201：港澳台相对控股, B0202：港澳台绝对控股, B03：外商控股, B0301：外商相对控股, B0302：外商绝对控股</t>
+          <t>采用国家统计局印发的《关于统计上对公有和非公有控股经济的分类办法》（国统字[2005]79号）。个人和境外非居民不需填报。填写值域树形结构的叶节点类别，即最小类别。如受实际情况所限不能确定最底层类别的，允许回溯一级。例如，若不能确定一个国有控股企业是A0101或A0102，可填写A01，不可填A。具体码值如下：
+A：公有控股经济
+A01：国有控股
+A0101：国有相对控股
+A0102：国有绝对控股
+A02：集体控股
+A0201：集体相对控股
+A0202：集体绝对控股
+B：非公有控股经济
+B01：私人控股
+B0101：私人相对控股
+B0102：私人绝对控股
+B02：港澳台控股
+B0201：港澳台相对控股
+B0202：港澳台绝对控股
+B03：外商控股
+B0301：外商相对控股
+B0302：外商绝对控股</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>非金融企业采用《统计上大中小微型企业划分办法（2017）》，金融业企业采用《金融业企业划型标准规定》（银发〔2015〕309号文印发）。, CS01：大型, CS02：中型, CS03：小型, CS04：微型, CS05：其他（非企业类单位）, 个人和境外非居民无需填报。境内非企业类单位应填报“CS05”，不得为空，也不得将其归入其他企业规模类型。</t>
+          <t>非金融企业采用《统计上大中小微型企业划分办法（2017）》，金融业企业采用《金融业企业划型标准规定》（银发〔2015〕309号文印发）。
+CS01：大型
+CS02：中型
+CS03：小型
+CS04：微型
+CS05：其他（非企业类单位）
+个人和境外非居民无需填报。境内非企业类单位应填报“CS05”，不得为空，也不得将其归入其他企业规模类型。</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -678,7 +763,30 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>A：单位, A01：统一社会信用代码, A02：组织机构代码, A03：其他, B：自然人, B01：身份证, B02：户口簿, B03：护照, B04：军官证, B05：士兵证, B06：港澳居民来往内地通行证, B07：台湾同胞来往内地通行证, B08：临时身份证, B09：外国人居留证, B10：警官证, B11：外国人永久居留身份证, B12：港澳台居民居住证, B99：其他证件, C：资管产品, C01：资管产品统计编码, C02：资管产品登记备案编码, L01：全球法人识别编码（LEI码）, Z99：自定义码, 必须填写最底层类别。</t>
+          <t>A：单位
+A01：统一社会信用代码
+A02：组织机构代码
+A03：其他
+B：自然人
+B01：身份证
+B02：户口簿
+B03：护照
+B04：军官证
+B05：士兵证
+B06：港澳居民来往内地通行证
+B07：台湾同胞来往内地通行证
+B08：临时身份证
+B09：外国人居留证
+B10：警官证
+B11：外国人永久居留身份证
+B12：港澳台居民居住证
+B99：其他证件
+C：资管产品
+C01：资管产品统计编码
+C02：资管产品登记备案编码
+L01：全球法人识别编码（LEI码）
+Z99：自定义码
+必须填写最底层类别。</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -693,7 +801,30 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>A：单位, A01：统一社会信用代码, A02：组织机构代码, A03：其他, B：自然人, B01：身份证, B02：户口簿, B03：护照, B04：军官证, B05：士兵证, B06：港澳居民来往内地通行证, B07：台湾同胞来往内地通行证, B08：临时身份证, B09：外国人居留证, B10：警官证, B11：外国人永久居留身份证, B12：港澳台居民居住证, B99：其他证件, C：资管产品, C01：资管产品统计编码, C02：资管产品登记备案编码, L01：全球法人识别编码（LEI码）, Z99：自定义码, 必须填写最底层类别。</t>
+          <t>A：单位
+A01：统一社会信用代码
+A02：组织机构代码
+A03：其他
+B：自然人
+B01：身份证
+B02：户口簿
+B03：护照
+B04：军官证
+B05：士兵证
+B06：港澳居民来往内地通行证
+B07：台湾同胞来往内地通行证
+B08：临时身份证
+B09：外国人居留证
+B10：警官证
+B11：外国人永久居留身份证
+B12：港澳台居民居住证
+B99：其他证件
+C：资管产品
+C01：资管产品统计编码
+C02：资管产品登记备案编码
+L01：全球法人识别编码（LEI码）
+Z99：自定义码
+必须填写最底层类别。</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -718,7 +849,8 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>采用《表示货币和资金的代码》（GB/T 12406）最新标准中的三位字母型代码。, 具体代码见码值表“C0004-币种”。</t>
+          <t>采用《表示货币和资金的代码》（GB/T 12406）最新标准中的三位字母型代码。
+具体代码见码值表“C0004-币种”。</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -733,7 +865,8 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>采用《表示货币和资金的代码》（GB/T 12406）最新标准中的三位字母型代码。, 具体代码见码值表“C0004-币种”。</t>
+          <t>采用《表示货币和资金的代码》（GB/T 12406）最新标准中的三位字母型代码。
+具体代码见码值表“C0004-币种”。</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -753,12 +886,19 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>FQ01：正常类贷款, FQ02：关注类贷款, FQ03：次级类贷款, FQ04：可疑类贷款, FQ05：损失类贷款</t>
+          <t>FQ01：正常类贷款
+FQ02：关注类贷款
+FQ03：次级类贷款
+FQ04：可疑类贷款
+FQ05：损失类贷款</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>LS01：正常, LS02：展期, LS03：逾期, LS04：缩期</t>
+          <t>LS01：正常
+LS02：展期
+LS03：逾期
+LS04：缩期</t>
         </is>
       </c>
     </row>
@@ -956,22 +1096,26 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>采用《中华人民共和国行政区划码》（GB/T 2260）最新标准的县（区）级数字码。, 具体代码见码值表“C0009-行政区划代码”。</t>
+          <t>采用《中华人民共和国行政区划码》（GB/T 2260）最新标准的县（区）级数字码。
+具体代码见码值表“C0009-行政区划代码”。</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>01：直贴, 02：买断式转贴现</t>
+          <t>01：直贴
+02：买断式转贴现</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>01：银行承兑汇票, 02：商业承兑汇票</t>
+          <t>01：银行承兑汇票
+02：商业承兑汇票</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>01：纸票, 02：电票</t>
+          <t>01：纸票
+02：电票</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -981,7 +1125,30 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>A：单位, A01：统一社会信用代码, A02：组织机构代码, A03：其他, B：自然人, B01：身份证, B02：户口簿, B03：护照, B04：军官证, B05：士兵证, B06：港澳居民来往内地通行证, B07：台湾同胞来往内地通行证, B08：临时身份证, B09：外国人居留证, B10：警官证, B11：外国人永久居留身份证, B12：港澳台居民居住证, B99：其他证件, C：资管产品, C01：资管产品统计编码, C02：资管产品登记备案编码, L01：全球法人识别编码（LEI码）, Z99：自定义码, 必须填写最底层类别。</t>
+          <t>A：单位
+A01：统一社会信用代码
+A02：组织机构代码
+A03：其他
+B：自然人
+B01：身份证
+B02：户口簿
+B03：护照
+B04：军官证
+B05：士兵证
+B06：港澳居民来往内地通行证
+B07：台湾同胞来往内地通行证
+B08：临时身份证
+B09：外国人居留证
+B10：警官证
+B11：外国人永久居留身份证
+B12：港澳台居民居住证
+B99：其他证件
+C：资管产品
+C01：资管产品统计编码
+C02：资管产品登记备案编码
+L01：全球法人识别编码（LEI码）
+Z99：自定义码
+必须填写最底层类别。</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -991,27 +1158,85 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>非居民不得填报广义政府、金融机构、非金融企业、住户等居民部门分类；必须填写最底层类别。具体码值如下：, A：广义政府, A01：中央政府, A02：地方政府, A03：社会保障基金, A04：机关团体, A05：部队, A06：住房公积金, A99：其他, B：金融机构部门, B01：货币当局, B02：监管当局, B03：银行业存款类金融机构, B04：银行业非存款类金融机构, B05：证券业金融机构, B06：保险业金融机构, B07：交易及结算类金融机构, B08：金融控股公司, B09：特定目的载体, B99：其他, C：非金融企业部门, C01：公司, C02：非公司企业, C99：其他非金融企业部门, D：住户部门, D01：住户, D02：为住户服务的非营利机构, E：非居民部门, E01：国际组织, E02：外国政府, E03：境外金融机构, E04：境外非金融企业, E05：外国居民</t>
+          <t>非居民不得填报广义政府、金融机构、非金融企业、住户等居民部门分类；必须填写最底层类别。具体码值如下：
+A：广义政府
+A01：中央政府
+A02：地方政府
+A03：社会保障基金
+A04：机关团体
+A05：部队
+A06：住房公积金
+A99：其他
+B：金融机构部门
+B01：货币当局
+B02：监管当局
+B03：银行业存款类金融机构
+B04：银行业非存款类金融机构
+B05：证券业金融机构
+B06：保险业金融机构
+B07：交易及结算类金融机构
+B08：金融控股公司
+B09：特定目的载体
+B99：其他
+C：非金融企业部门
+C01：公司
+C02：非公司企业
+C99：其他非金融企业部门
+D：住户部门
+D01：住户
+D02：为住户服务的非营利机构
+E：非居民部门
+E01：国际组织
+E02：外国政府
+E03：境外金融机构
+E04：境外非金融企业
+E05：外国居民</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>行业采用《国民经济行业分类》（GB/T 4754）最新标准的大类。个人填报“100”，境外贴现申请人填报“200”。, 具体代码见码值表“C0012-行业大类”。</t>
+          <t>行业采用《国民经济行业分类》（GB/T 4754）最新标准的大类。个人填报“100”，境外贴现申请人填报“200”。
+具体代码见码值表“C0012-行业大类”。</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>如果是境内客户，采用《中华人民共和国行政区划码》（GB/T 2260）最新标准的县（区）级数字码，具体代码见码值表“C0009-行政区划代码”；, 如果是境外客户，前3位用“000”填充，后3位采用《世界各国和地区名称代码》（GB/T 2659）最新标准的3位国别阿拉伯数字代码（客户注册地为港澳台的，应按境外客户填报地区代码，不得填报行政区划代码如810000、820000等）。, 具体代码见码值表“C0013-国家地区代码”。</t>
+          <t>如果是境内客户，采用《中华人民共和国行政区划码》（GB/T 2260）最新标准的县（区）级数字码，具体代码见码值表“C0009-行政区划代码”；
+如果是境外客户，前3位用“000”填充，后3位采用《世界各国和地区名称代码》（GB/T 2659）最新标准的3位国别阿拉伯数字代码（客户注册地为港澳台的，应按境外客户填报地区代码，不得填报行政区划代码如810000、820000等）。
+具体代码见码值表“C0013-国家地区代码”。</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>采用国家统计局印发的《关于统计上对公有和非公有控股经济的分类办法》（国统字200579号）。个人和境外非居民不需填报。填写值域树形结构的叶节点类别，即最小类别。如受实际情况所限不能确定最底层类别的，允许回溯一级。例如，若不能确定一个国有控股企业是A0101或A0102，可填写A01，不可填A。具体码值如下：, A：公有控股经济, A01：国有控股, A0101：国有相对控股, A0102：国有绝对控股, A02：集体控股, A0201：集体相对控股, A0202：集体绝对控股, B：非公有控股经济, B01：私人控股, B0101：私人相对控股, B0102：私人绝对控股, B02：港澳台控股, B0201：港澳台相对控股, B0202：港澳台绝对控股, B03：外商控股, B0301：外商相对控股, B0302：外商绝对控股</t>
+          <t>采用国家统计局印发的《关于统计上对公有和非公有控股经济的分类办法》（国统字[2005]79号）。个人和境外非居民不需填报。填写值域树形结构的叶节点类别，即最小类别。如受实际情况所限不能确定最底层类别的，允许回溯一级。例如，若不能确定一个国有控股企业是A0101或A0102，可填写A01，不可填A。具体码值如下：
+A：公有控股经济
+A01：国有控股
+A0101：国有相对控股
+A0102：国有绝对控股
+A02：集体控股
+A0201：集体相对控股
+A0202：集体绝对控股
+B：非公有控股经济
+B01：私人控股
+B0101：私人相对控股
+B0102：私人绝对控股
+B02：港澳台控股
+B0201：港澳台相对控股
+B0202：港澳台绝对控股
+B03：外商控股
+B0301：外商相对控股
+B0302：外商绝对控股</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>非金融企业采用《统计上大中小微型企业划分办法（2017）》，金融业企业采用《金融业企业划型标准规定》（银发〔2015〕309号文印发）。, CS01：大型, CS02：中型, CS03：小型, CS04：微型, CS05：其他（非企业类单位）, 个人和境外非居民无需填报。境内非企业类单位应填报“CS05”，不得为空，也不得将其归入其他企业规模类型。</t>
+          <t>非金融企业采用《统计上大中小微型企业划分办法（2017）》，金融业企业采用《金融业企业划型标准规定》（银发〔2015〕309号文印发）。
+CS01：大型
+CS02：中型
+CS03：小型
+CS04：微型
+CS05：其他（非企业类单位）
+个人和境外非居民无需填报。境内非企业类单位应填报“CS05”，不得为空，也不得将其归入其他企业规模类型。</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -1021,7 +1246,30 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>A：单位, A01：统一社会信用代码, A02：组织机构代码, A03：其他, B：自然人, B01：身份证, B02：户口簿, B03：护照, B04：军官证, B05：士兵证, B06：港澳居民来往内地通行证, B07：台湾同胞来往内地通行证, B08：临时身份证, B09：外国人居留证, B10：警官证, B11：外国人永久居留身份证, B12：港澳台居民居住证, B99：其他证件, C：资管产品, C01：资管产品统计编码, C02：资管产品登记备案编码, L01：全球法人识别编码（LEI码）, Z99：自定义码, 必须填写最底层类别。</t>
+          <t>A：单位
+A01：统一社会信用代码
+A02：组织机构代码
+A03：其他
+B：自然人
+B01：身份证
+B02：户口簿
+B03：护照
+B04：军官证
+B05：士兵证
+B06：港澳居民来往内地通行证
+B07：台湾同胞来往内地通行证
+B08：临时身份证
+B09：外国人居留证
+B10：警官证
+B11：外国人永久居留身份证
+B12：港澳台居民居住证
+B99：其他证件
+C：资管产品
+C01：资管产品统计编码
+C02：资管产品登记备案编码
+L01：全球法人识别编码（LEI码）
+Z99：自定义码
+必须填写最底层类别。</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -1036,7 +1284,30 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>A：单位, A01：统一社会信用代码, A02：组织机构代码, A03：其他, B：自然人, B01：身份证, B02：户口簿, B03：护照, B04：军官证, B05：士兵证, B06：港澳居民来往内地通行证, B07：台湾同胞来往内地通行证, B08：临时身份证, B09：外国人居留证, B10：警官证, B11：外国人永久居留身份证, B12：港澳台居民居住证, B99：其他证件, C：资管产品, C01：资管产品统计编码, C02：资管产品登记备案编码, L01：全球法人识别编码（LEI码）, Z99：自定义码, 必须填写最底层类别。</t>
+          <t>A：单位
+A01：统一社会信用代码
+A02：组织机构代码
+A03：其他
+B：自然人
+B01：身份证
+B02：户口簿
+B03：护照
+B04：军官证
+B05：士兵证
+B06：港澳居民来往内地通行证
+B07：台湾同胞来往内地通行证
+B08：临时身份证
+B09：外国人居留证
+B10：警官证
+B11：外国人永久居留身份证
+B12：港澳台居民居住证
+B99：其他证件
+C：资管产品
+C01：资管产品统计编码
+C02：资管产品登记备案编码
+L01：全球法人识别编码（LEI码）
+Z99：自定义码
+必须填写最底层类别。</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -1061,7 +1332,8 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>采用《表示货币和资金的代码》（GB/T 12406）最新标准中的三位字母型代码。, 具体代码见码值表“C0004-币种”。</t>
+          <t>采用《表示货币和资金的代码》（GB/T 12406）最新标准中的三位字母型代码。
+具体代码见码值表“C0004-币种”。</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -1076,7 +1348,8 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>采用《表示货币和资金的代码》（GB/T 12406）最新标准中的三位字母型代码。, 具体代码见码值表“C0004-币种”。</t>
+          <t>采用《表示货币和资金的代码》（GB/T 12406）最新标准中的三位字母型代码。
+具体代码见码值表“C0004-币种”。</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -1096,7 +1369,17 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>A：买入, A01：直贴买入, A02：买断式转贴现, A09：其他方式买入, B：卖出, B01：到期收回, B02：买断式转贴现, B03：证券化转让, B04：核销, B09：其他方式卖出, 必须填写最底层类别。</t>
+          <t>A：买入
+A01：直贴买入
+A02：买断式转贴现
+A09：其他方式买入
+B：卖出
+B01：到期收回
+B02：买断式转贴现
+B03：证券化转让
+B04：核销
+B09：其他方式卖出
+必须填写最底层类别。</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -1259,7 +1542,8 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>采用《中华人民共和国行政区划码》（GB/T 2260）最新标准的县（区）级数字码。, 具体代码见码值表“C0009-行政区划代码”。</t>
+          <t>采用《中华人民共和国行政区划码》（GB/T 2260）最新标准的县（区）级数字码。
+具体代码见码值表“C0009-行政区划代码”。</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1269,12 +1553,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>01：银行承兑汇票, 02：商业承兑汇票</t>
+          <t>01：银行承兑汇票
+02：商业承兑汇票</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>01：纸票, 02：电票</t>
+          <t>01：纸票
+02：电票</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -1309,7 +1595,30 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>A：单位, A01：统一社会信用代码, A02：组织机构代码, A03：其他, B：自然人, B01：身份证, B02：户口簿, B03：护照, B04：军官证, B05：士兵证, B06：港澳居民来往内地通行证, B07：台湾同胞来往内地通行证, B08：临时身份证, B09：外国人居留证, B10：警官证, B11：外国人永久居留身份证, B12：港澳台居民居住证, B99：其他证件, C：资管产品, C01：资管产品统计编码, C02：资管产品登记备案编码, L01：全球法人识别编码（LEI码）, Z99：自定义码, 必须填写最底层类别。</t>
+          <t>A：单位
+A01：统一社会信用代码
+A02：组织机构代码
+A03：其他
+B：自然人
+B01：身份证
+B02：户口簿
+B03：护照
+B04：军官证
+B05：士兵证
+B06：港澳居民来往内地通行证
+B07：台湾同胞来往内地通行证
+B08：临时身份证
+B09：外国人居留证
+B10：警官证
+B11：外国人永久居留身份证
+B12：港澳台居民居住证
+B99：其他证件
+C：资管产品
+C01：资管产品统计编码
+C02：资管产品登记备案编码
+L01：全球法人识别编码（LEI码）
+Z99：自定义码
+必须填写最底层类别。</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -1324,7 +1633,30 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>A：单位, A01：统一社会信用代码, A02：组织机构代码, A03：其他, B：自然人, B01：身份证, B02：户口簿, B03：护照, B04：军官证, B05：士兵证, B06：港澳居民来往内地通行证, B07：台湾同胞来往内地通行证, B08：临时身份证, B09：外国人居留证, B10：警官证, B11：外国人永久居留身份证, B12：港澳台居民居住证, B99：其他证件, C：资管产品, C01：资管产品统计编码, C02：资管产品登记备案编码, L01：全球法人识别编码（LEI码）, Z99：自定义码, 必须填写最底层类别。</t>
+          <t>A：单位
+A01：统一社会信用代码
+A02：组织机构代码
+A03：其他
+B：自然人
+B01：身份证
+B02：户口簿
+B03：护照
+B04：军官证
+B05：士兵证
+B06：港澳居民来往内地通行证
+B07：台湾同胞来往内地通行证
+B08：临时身份证
+B09：外国人居留证
+B10：警官证
+B11：外国人永久居留身份证
+B12：港澳台居民居住证
+B99：其他证件
+C：资管产品
+C01：资管产品统计编码
+C02：资管产品登记备案编码
+L01：全球法人识别编码（LEI码）
+Z99：自定义码
+必须填写最底层类别。</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -1334,7 +1666,8 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>采用《表示货币和资金的代码》（GB/T 12406）最新标准中的三位字母型代码。, 具体代码见码值表“C0004-币种”。</t>
+          <t>采用《表示货币和资金的代码》（GB/T 12406）最新标准中的三位字母型代码。
+具体代码见码值表“C0004-币种”。</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -1354,7 +1687,8 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>采用《表示货币和资金的代码》（GB/T 12406）最新标准中的三位字母型代码。, 具体代码见码值表“C0004-币种”。</t>
+          <t>采用《表示货币和资金的代码》（GB/T 12406）最新标准中的三位字母型代码。
+具体代码见码值表“C0004-币种”。</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -1532,7 +1866,8 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>采用《中华人民共和国行政区划码》（GB/T 2260）最新标准的县（区）级数字码。, 具体代码见码值表“C0009-行政区划代码”。</t>
+          <t>采用《中华人民共和国行政区划码》（GB/T 2260）最新标准的县（区）级数字码。
+具体代码见码值表“C0009-行政区划代码”。</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1542,12 +1877,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>01：银行承兑汇票, 02：商业承兑汇票</t>
+          <t>01：银行承兑汇票
+02：商业承兑汇票</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>01：纸票, 02：电票</t>
+          <t>01：纸票
+02：电票</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -1582,7 +1919,30 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>A：单位, A01：统一社会信用代码, A02：组织机构代码, A03：其他, B：自然人, B01：身份证, B02：户口簿, B03：护照, B04：军官证, B05：士兵证, B06：港澳居民来往内地通行证, B07：台湾同胞来往内地通行证, B08：临时身份证, B09：外国人居留证, B10：警官证, B11：外国人永久居留身份证, B12：港澳台居民居住证, B99：其他证件, C：资管产品, C01：资管产品统计编码, C02：资管产品登记备案编码, L01：全球法人识别编码（LEI码）, Z99：自定义码, 必须填写最底层类别。</t>
+          <t>A：单位
+A01：统一社会信用代码
+A02：组织机构代码
+A03：其他
+B：自然人
+B01：身份证
+B02：户口簿
+B03：护照
+B04：军官证
+B05：士兵证
+B06：港澳居民来往内地通行证
+B07：台湾同胞来往内地通行证
+B08：临时身份证
+B09：外国人居留证
+B10：警官证
+B11：外国人永久居留身份证
+B12：港澳台居民居住证
+B99：其他证件
+C：资管产品
+C01：资管产品统计编码
+C02：资管产品登记备案编码
+L01：全球法人识别编码（LEI码）
+Z99：自定义码
+必须填写最底层类别。</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -1597,7 +1957,30 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>A：单位, A01：统一社会信用代码, A02：组织机构代码, A03：其他, B：自然人, B01：身份证, B02：户口簿, B03：护照, B04：军官证, B05：士兵证, B06：港澳居民来往内地通行证, B07：台湾同胞来往内地通行证, B08：临时身份证, B09：外国人居留证, B10：警官证, B11：外国人永久居留身份证, B12：港澳台居民居住证, B99：其他证件, C：资管产品, C01：资管产品统计编码, C02：资管产品登记备案编码, L01：全球法人识别编码（LEI码）, Z99：自定义码, 必须填写最底层类别。</t>
+          <t>A：单位
+A01：统一社会信用代码
+A02：组织机构代码
+A03：其他
+B：自然人
+B01：身份证
+B02：户口簿
+B03：护照
+B04：军官证
+B05：士兵证
+B06：港澳居民来往内地通行证
+B07：台湾同胞来往内地通行证
+B08：临时身份证
+B09：外国人居留证
+B10：警官证
+B11：外国人永久居留身份证
+B12：港澳台居民居住证
+B99：其他证件
+C：资管产品
+C01：资管产品统计编码
+C02：资管产品登记备案编码
+L01：全球法人识别编码（LEI码）
+Z99：自定义码
+必须填写最底层类别。</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -1607,7 +1990,8 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>采用《表示货币和资金的代码》（GB/T 12406）最新标准中的三位字母型代码。, 具体代码见码值表“C0004-币种”。</t>
+          <t>采用《表示货币和资金的代码》（GB/T 12406）最新标准中的三位字母型代码。
+具体代码见码值表“C0004-币种”。</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -1627,7 +2011,8 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>采用《表示货币和资金的代码》（GB/T 12406）最新标准中的三位字母型代码。, 具体代码见码值表“C0004-币种”。</t>
+          <t>采用《表示货币和资金的代码》（GB/T 12406）最新标准中的三位字母型代码。
+具体代码见码值表“C0004-币种”。</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -1642,7 +2027,8 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>1：发放, 0：结清</t>
+          <t>1：发放
+0：结清</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -1800,7 +2186,8 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>采用《中华人民共和国行政区划码》（GB/T 2260）最新标准的县（区）级数字码。, 具体代码见码值表“C0009-行政区划代码”。</t>
+          <t>采用《中华人民共和国行政区划码》（GB/T 2260）最新标准的县（区）级数字码。
+具体代码见码值表“C0009-行政区划代码”。</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1810,7 +2197,30 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A：单位, A01：统一社会信用代码, A02：组织机构代码, A03：其他, B：自然人, B01：身份证, B02：户口簿, B03：护照, B04：军官证, B05：士兵证, B06：港澳居民来往内地通行证, B07：台湾同胞来往内地通行证, B08：临时身份证, B09：外国人居留证, B10：警官证, B11：外国人永久居留身份证, B12：港澳台居民居住证, B99：其他证件, C：资管产品, C01：资管产品统计编码, C02：资管产品登记备案编码, L01：全球法人识别编码（LEI码）, Z99：自定义码, 必须填写最底层类别。</t>
+          <t>A：单位
+A01：统一社会信用代码
+A02：组织机构代码
+A03：其他
+B：自然人
+B01：身份证
+B02：户口簿
+B03：护照
+B04：军官证
+B05：士兵证
+B06：港澳居民来往内地通行证
+B07：台湾同胞来往内地通行证
+B08：临时身份证
+B09：外国人居留证
+B10：警官证
+B11：外国人永久居留身份证
+B12：港澳台居民居住证
+B99：其他证件
+C：资管产品
+C01：资管产品统计编码
+C02：资管产品登记备案编码
+L01：全球法人识别编码（LEI码）
+Z99：自定义码
+必须填写最底层类别。</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1820,22 +2230,48 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>行业采用《国民经济行业分类》（GB/T 4754）最新标准的大类。个人填报“100”，境外出票人填报“200”。, 具体代码见码值表“C0012-行业大类”。</t>
+          <t>行业采用《国民经济行业分类》（GB/T 4754）最新标准的大类。个人填报“100”，境外出票人填报“200”。
+具体代码见码值表“C0012-行业大类”。</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>如果是境内客户，采用《中华人民共和国行政区划码》（GB/T 2260）最新标准的县（区）级数字码，具体代码见码值表“C0009-行政区划代码”；, 如果是境外客户，前3位用“000”填充，后3位采用《世界各国和地区名称代码》（GB/T 2659）最新标准的3位国别阿拉伯数字代码（客户注册地为港澳台的，应按境外客户填报地区代码，不得填报行政区划代码如810000、820000等）。, 具体代码见码值表“C0013-国家地区代码”。</t>
+          <t>如果是境内客户，采用《中华人民共和国行政区划码》（GB/T 2260）最新标准的县（区）级数字码，具体代码见码值表“C0009-行政区划代码”；
+如果是境外客户，前3位用“000”填充，后3位采用《世界各国和地区名称代码》（GB/T 2659）最新标准的3位国别阿拉伯数字代码（客户注册地为港澳台的，应按境外客户填报地区代码，不得填报行政区划代码如810000、820000等）。
+具体代码见码值表“C0013-国家地区代码”。</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>采用国家统计局印发的《关于统计上对公有和非公有控股经济的分类办法》（国统字200579号）。个人和境外非居民不需填报。填写值域树形结构的叶节点类别，即最小类别。如受实际情况所限不能确定最底层类别的，允许回溯一级。例如，若不能确定一个国有控股企业是A0101或A0102，可填写A01，不可填A。具体码值如下：, A：公有控股经济, A01：国有控股, A0101：国有相对控股, A0102：国有绝对控股, A02：集体控股, A0201：集体相对控股, A0202：集体绝对控股, B：非公有控股经济, B01：私人控股, B0101：私人相对控股, B0102：私人绝对控股, B02：港澳台控股, B0201：港澳台相对控股, B0202：港澳台绝对控股, B03：外商控股, B0301：外商相对控股, B0302：外商绝对控股</t>
+          <t>采用国家统计局印发的《关于统计上对公有和非公有控股经济的分类办法》（国统字[2005]79号）。个人和境外非居民不需填报。填写值域树形结构的叶节点类别，即最小类别。如受实际情况所限不能确定最底层类别的，允许回溯一级。例如，若不能确定一个国有控股企业是A0101或A0102，可填写A01，不可填A。具体码值如下：
+A：公有控股经济
+A01：国有控股
+A0101：国有相对控股
+A0102：国有绝对控股
+A02：集体控股
+A0201：集体相对控股
+A0202：集体绝对控股
+B：非公有控股经济
+B01：私人控股
+B0101：私人相对控股
+B0102：私人绝对控股
+B02：港澳台控股
+B0201：港澳台相对控股
+B0202：港澳台绝对控股
+B03：外商控股
+B0301：外商相对控股
+B0302：外商绝对控股</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>非金融企业采用《统计上大中小微型企业划分办法（2017）》，金融业企业采用《金融业企业划型标准规定》（银发〔2015〕309号文印发）。, CS01：大型, CS02：中型, CS03：小型, CS04：微型, CS05：其他（非企业类单位）, 个人和境外非居民无需填报。境内非企业类单位应填报“CS05”，不得为空，也不得将其归入其他企业规模类型。</t>
+          <t>非金融企业采用《统计上大中小微型企业划分办法（2017）》，金融业企业采用《金融业企业划型标准规定》（银发〔2015〕309号文印发）。
+CS01：大型
+CS02：中型
+CS03：小型
+CS04：微型
+CS05：其他（非企业类单位）
+个人和境外非居民无需填报。境内非企业类单位应填报“CS05”，不得为空，也不得将其归入其他企业规模类型。</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1845,7 +2281,30 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>A：单位, A01：统一社会信用代码, A02：组织机构代码, A03：其他, B：自然人, B01：身份证, B02：户口簿, B03：护照, B04：军官证, B05：士兵证, B06：港澳居民来往内地通行证, B07：台湾同胞来往内地通行证, B08：临时身份证, B09：外国人居留证, B10：警官证, B11：外国人永久居留身份证, B12：港澳台居民居住证, B99：其他证件, C：资管产品, C01：资管产品统计编码, C02：资管产品登记备案编码, L01：全球法人识别编码（LEI码）, Z99：自定义码, 必须填写最底层类别。</t>
+          <t>A：单位
+A01：统一社会信用代码
+A02：组织机构代码
+A03：其他
+B：自然人
+B01：身份证
+B02：户口簿
+B03：护照
+B04：军官证
+B05：士兵证
+B06：港澳居民来往内地通行证
+B07：台湾同胞来往内地通行证
+B08：临时身份证
+B09：外国人居留证
+B10：警官证
+B11：外国人永久居留身份证
+B12：港澳台居民居住证
+B99：其他证件
+C：资管产品
+C01：资管产品统计编码
+C02：资管产品登记备案编码
+L01：全球法人识别编码（LEI码）
+Z99：自定义码
+必须填写最底层类别。</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -1860,7 +2319,8 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>01：纸票, 02：电票</t>
+          <t>01：纸票
+02：电票</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -1875,7 +2335,8 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>采用《表示货币和资金的代码》（GB/T 12406）最新标准中的三位字母型代码。, 具体代码见码值表“C0004-币种”。</t>
+          <t>采用《表示货币和资金的代码》（GB/T 12406）最新标准中的三位字母型代码。
+具体代码见码值表“C0004-币种”。</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -1900,7 +2361,17 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>A：质押, B：抵押, B01：房地产抵押, B99：其他抵押, C：保证, C01：联保, C99：其他保证, D：信用/免担保, E：组合担保, Z：其他, 必须填写最底层类别，组合担保如果含房地产抵押，统一按B01房地产抵押填报。</t>
+          <t>A：质押
+B：抵押
+B01：房地产抵押
+B99：其他抵押
+C：保证
+C01：联保
+C99：其他保证
+D：信用/免担保
+E：组合担保
+Z：其他
+必须填写最底层类别，组合担保如果含房地产抵押，统一按B01房地产抵押填报。</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2544,8 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>采用《中华人民共和国行政区划码》（GB/T 2260）最新标准的县（区）级数字码。, 具体代码见码值表“C0009-行政区划代码”。</t>
+          <t>采用《中华人民共和国行政区划码》（GB/T 2260）最新标准的县（区）级数字码。
+具体代码见码值表“C0009-行政区划代码”。</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2083,7 +2555,30 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A：单位, A01：统一社会信用代码, A02：组织机构代码, A03：其他, B：自然人, B01：身份证, B02：户口簿, B03：护照, B04：军官证, B05：士兵证, B06：港澳居民来往内地通行证, B07：台湾同胞来往内地通行证, B08：临时身份证, B09：外国人居留证, B10：警官证, B11：外国人永久居留身份证, B12：港澳台居民居住证, B99：其他证件, C：资管产品, C01：资管产品统计编码, C02：资管产品登记备案编码, L01：全球法人识别编码（LEI码）, Z99：自定义码, 必须填写最底层类别。</t>
+          <t>A：单位
+A01：统一社会信用代码
+A02：组织机构代码
+A03：其他
+B：自然人
+B01：身份证
+B02：户口簿
+B03：护照
+B04：军官证
+B05：士兵证
+B06：港澳居民来往内地通行证
+B07：台湾同胞来往内地通行证
+B08：临时身份证
+B09：外国人居留证
+B10：警官证
+B11：外国人永久居留身份证
+B12：港澳台居民居住证
+B99：其他证件
+C：资管产品
+C01：资管产品统计编码
+C02：资管产品登记备案编码
+L01：全球法人识别编码（LEI码）
+Z99：自定义码
+必须填写最底层类别。</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -2093,22 +2588,48 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>行业采用《国民经济行业分类》（GB/T 4754）最新标准的大类。个人填报“100”，境外出票人填报“200”。, 具体代码见码值表“C0012-行业大类”。</t>
+          <t>行业采用《国民经济行业分类》（GB/T 4754）最新标准的大类。个人填报“100”，境外出票人填报“200”。
+具体代码见码值表“C0012-行业大类”。</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>如果是境内客户，采用《中华人民共和国行政区划码》（GB/T 2260）最新标准的县（区）级数字码，具体代码见码值表“C0009-行政区划代码”；, 如果是境外客户，前3位用“000”填充，后3位采用《世界各国和地区名称代码》（GB/T 2659）最新标准的3位国别阿拉伯数字代码（客户注册地为港澳台的，应按境外客户填报地区代码，不得填报行政区划代码如810000、820000等）。, 具体代码见码值表“C0013-国家地区代码”。</t>
+          <t>如果是境内客户，采用《中华人民共和国行政区划码》（GB/T 2260）最新标准的县（区）级数字码，具体代码见码值表“C0009-行政区划代码”；
+如果是境外客户，前3位用“000”填充，后3位采用《世界各国和地区名称代码》（GB/T 2659）最新标准的3位国别阿拉伯数字代码（客户注册地为港澳台的，应按境外客户填报地区代码，不得填报行政区划代码如810000、820000等）。
+具体代码见码值表“C0013-国家地区代码”。</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>采用国家统计局印发的《关于统计上对公有和非公有控股经济的分类办法》（国统字200579号）。个人和境外非居民不需填报。填写值域树形结构的叶节点类别，即最小类别。如受实际情况所限不能确定最底层类别的，允许回溯一级。例如，若不能确定一个国有控股企业是A0101或A0102，可填写A01，不可填A。具体码值如下：, A：公有控股经济, A01：国有控股, A0101：国有相对控股, A0102：国有绝对控股, A02：集体控股, A0201：集体相对控股, A0202：集体绝对控股, B：非公有控股经济, B01：私人控股, B0101：私人相对控股, B0102：私人绝对控股, B02：港澳台控股, B0201：港澳台相对控股, B0202：港澳台绝对控股, B03：外商控股, B0301：外商相对控股, B0302：外商绝对控股</t>
+          <t>采用国家统计局印发的《关于统计上对公有和非公有控股经济的分类办法》（国统字[2005]79号）。个人和境外非居民不需填报。填写值域树形结构的叶节点类别，即最小类别。如受实际情况所限不能确定最底层类别的，允许回溯一级。例如，若不能确定一个国有控股企业是A0101或A0102，可填写A01，不可填A。具体码值如下：
+A：公有控股经济
+A01：国有控股
+A0101：国有相对控股
+A0102：国有绝对控股
+A02：集体控股
+A0201：集体相对控股
+A0202：集体绝对控股
+B：非公有控股经济
+B01：私人控股
+B0101：私人相对控股
+B0102：私人绝对控股
+B02：港澳台控股
+B0201：港澳台相对控股
+B0202：港澳台绝对控股
+B03：外商控股
+B0301：外商相对控股
+B0302：外商绝对控股</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>非金融企业采用《统计上大中小微型企业划分办法（2017）》，金融业企业采用《金融业企业划型标准规定》（银发〔2015〕309号文印发）。, CS01：大型, CS02：中型, CS03：小型, CS04：微型, CS05：其他（非企业类单位）, 个人和境外非居民无需填报。境内非企业类单位应填报“CS05”，不得为空，也不得将其归入其他企业规模类型。</t>
+          <t>非金融企业采用《统计上大中小微型企业划分办法（2017）》，金融业企业采用《金融业企业划型标准规定》（银发〔2015〕309号文印发）。
+CS01：大型
+CS02：中型
+CS03：小型
+CS04：微型
+CS05：其他（非企业类单位）
+个人和境外非居民无需填报。境内非企业类单位应填报“CS05”，不得为空，也不得将其归入其他企业规模类型。</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -2118,7 +2639,30 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>A：单位, A01：统一社会信用代码, A02：组织机构代码, A03：其他, B：自然人, B01：身份证, B02：户口簿, B03：护照, B04：军官证, B05：士兵证, B06：港澳居民来往内地通行证, B07：台湾同胞来往内地通行证, B08：临时身份证, B09：外国人居留证, B10：警官证, B11：外国人永久居留身份证, B12：港澳台居民居住证, B99：其他证件, C：资管产品, C01：资管产品统计编码, C02：资管产品登记备案编码, L01：全球法人识别编码（LEI码）, Z99：自定义码, 必须填写最底层类别。</t>
+          <t>A：单位
+A01：统一社会信用代码
+A02：组织机构代码
+A03：其他
+B：自然人
+B01：身份证
+B02：户口簿
+B03：护照
+B04：军官证
+B05：士兵证
+B06：港澳居民来往内地通行证
+B07：台湾同胞来往内地通行证
+B08：临时身份证
+B09：外国人居留证
+B10：警官证
+B11：外国人永久居留身份证
+B12：港澳台居民居住证
+B99：其他证件
+C：资管产品
+C01：资管产品统计编码
+C02：资管产品登记备案编码
+L01：全球法人识别编码（LEI码）
+Z99：自定义码
+必须填写最底层类别。</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -2133,7 +2677,8 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>01：纸票, 02：电票</t>
+          <t>01：纸票
+02：电票</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -2153,7 +2698,8 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>采用《表示货币和资金的代码》（GB/T 12406）最新标准中的三位字母型代码。, 具体代码见码值表“C0004-币种”。</t>
+          <t>采用《表示货币和资金的代码》（GB/T 12406）最新标准中的三位字母型代码。
+具体代码见码值表“C0004-币种”。</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -2178,7 +2724,8 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>01：承兑, 02：兑付</t>
+          <t>01：承兑
+02：兑付</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -2193,7 +2740,17 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>A：质押, B：抵押, B01：房地产抵押, B99：其他抵押, C：保证, C01：联保, C99：其他保证, D：信用/免担保, E：组合担保, Z：其他, 必须填写最底层类别，组合担保如果含房地产抵押，统一按B01房地产抵押填报。</t>
+          <t>A：质押
+B：抵押
+B01：房地产抵押
+B99：其他抵押
+C：保证
+C01：联保
+C99：其他保证
+D：信用/免担保
+E：组合担保
+Z：其他
+必须填写最底层类别，组合担保如果含房地产抵押，统一按B01房地产抵押填报。</t>
         </is>
       </c>
     </row>
